--- a/data/master_sheet.xlsx
+++ b/data/master_sheet.xlsx
@@ -572,7 +572,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/master_sheet.xlsx
+++ b/data/master_sheet.xlsx
@@ -220,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +251,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -264,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -287,7 +293,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,9 +577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1164,7 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="19">
         <v>7</v>
       </c>
       <c r="K8" t="s">
@@ -11714,7 +11721,9 @@
       <c r="K145" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L145" s="14"/>
+      <c r="L145" s="18">
+        <v>0.2</v>
+      </c>
       <c r="M145" s="8">
         <v>0</v>
       </c>
